--- a/data/case1/15/Q1_2.xlsx
+++ b/data/case1/15/Q1_2.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.27915983601256045</v>
+        <v>0.22826733537822008</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999853239672</v>
+        <v>-0.0059999999444642071</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999866306979</v>
+        <v>-0.003999999952631228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999757873752</v>
+        <v>-0.0079999999123891996</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.002999999985605406</v>
+        <v>-0.0029999999523839804</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999839885874</v>
+        <v>-0.0019999999503870214</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999657831573</v>
+        <v>-0.0099999998796187484</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999658679783</v>
+        <v>-0.0099999998799438217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.001999999984803047</v>
+        <v>-0.0019999999534938695</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999855215833</v>
+        <v>-0.0019999999559452419</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.03306417802899464</v>
+        <v>-0.0029999999471854721</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0029304492843005292</v>
+        <v>-0.0034999999431364337</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999805469528</v>
+        <v>-0.003499999948290089</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999699449376</v>
+        <v>-0.00799999991038014</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999998578326199</v>
+        <v>0.04077141437882581</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999832855941</v>
+        <v>-0.0019999999661890477</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.001999999983040901</v>
+        <v>-0.0019999999654203293</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999783653095</v>
+        <v>-0.0039999999472879466</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.043750784733906922</v>
+        <v>-0.052472851261399001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.046477466501297471</v>
+        <v>-0.0039999999585145218</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999859006152</v>
+        <v>-0.0039999999581166179</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999858038038</v>
+        <v>-0.0039999999577799983</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999835437237</v>
+        <v>-0.0049999999408374407</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999947821756</v>
+        <v>-0.019999999801833646</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.01999999994708368</v>
+        <v>-0.019999999799257928</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999820511931</v>
+        <v>-0.0024999999438595211</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999809414142</v>
+        <v>-0.0024999999409134332</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999774586996</v>
+        <v>-0.0019999999324733508</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999627974319</v>
+        <v>-0.0069999998792074081</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999839747797</v>
+        <v>-0.059999999401492587</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.006999999960010328</v>
+        <v>0.0079553214512628756</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999529813977</v>
+        <v>-0.0099999998466344664</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999666626707</v>
+        <v>-0.0039999999001345543</v>
       </c>
     </row>
   </sheetData>
